--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N2">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O2">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P2">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q2">
-        <v>85.26295425996668</v>
+        <v>370.51045105239</v>
       </c>
       <c r="R2">
-        <v>511.5777255598001</v>
+        <v>2223.06270631434</v>
       </c>
       <c r="S2">
-        <v>0.002585580191359637</v>
+        <v>0.003025471363879784</v>
       </c>
       <c r="T2">
-        <v>0.001728031792657554</v>
+        <v>0.002024962497693999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N3">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O3">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P3">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q3">
-        <v>0.0277293128</v>
+        <v>0.6619388998475001</v>
       </c>
       <c r="R3">
-        <v>0.1109172512</v>
+        <v>2.64775559939</v>
       </c>
       <c r="S3">
-        <v>8.408852650952381E-07</v>
+        <v>5.405184065492183E-06</v>
       </c>
       <c r="T3">
-        <v>3.746616141624396E-07</v>
+        <v>2.411810416591064E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N4">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O4">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P4">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q4">
-        <v>0.08730980216666667</v>
+        <v>318.2132658548526</v>
       </c>
       <c r="R4">
-        <v>0.5238588129999999</v>
+        <v>1909.279595129115</v>
       </c>
       <c r="S4">
-        <v>2.647650400493528E-06</v>
+        <v>0.002598429061085754</v>
       </c>
       <c r="T4">
-        <v>1.76951543919797E-06</v>
+        <v>0.001739141035818429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H5">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I5">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J5">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N5">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O5">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P5">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q5">
-        <v>59.89416184269</v>
+        <v>252.3028703905601</v>
       </c>
       <c r="R5">
-        <v>359.36497105614</v>
+        <v>1513.81722234336</v>
       </c>
       <c r="S5">
-        <v>0.001816277183715403</v>
+        <v>0.002060225581284283</v>
       </c>
       <c r="T5">
-        <v>0.001213880245612612</v>
+        <v>0.001378918864907247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>324.26945</v>
       </c>
       <c r="I6">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J6">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N6">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O6">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P6">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q6">
-        <v>13586.79231386561</v>
+        <v>19624.3811286486</v>
       </c>
       <c r="R6">
-        <v>122281.1308247905</v>
+        <v>176619.4301578374</v>
       </c>
       <c r="S6">
-        <v>0.4120164657177812</v>
+        <v>0.1602465003887134</v>
       </c>
       <c r="T6">
-        <v>0.4130470721260037</v>
+        <v>0.1608806271716269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>324.26945</v>
       </c>
       <c r="I7">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J7">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N7">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O7">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P7">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q7">
-        <v>4.418711705333333</v>
+        <v>35.06012102381667</v>
       </c>
       <c r="R7">
-        <v>26.512270232</v>
+        <v>210.3607261429</v>
       </c>
       <c r="S7">
-        <v>0.0001339964531583578</v>
+        <v>0.0002862898789235993</v>
       </c>
       <c r="T7">
-        <v>8.955441874700837E-05</v>
+        <v>0.0001916151893588636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J8">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N8">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O8">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P8">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q8">
-        <v>13.91296090194444</v>
+        <v>16854.41906318752</v>
       </c>
       <c r="R8">
-        <v>125.2166481175</v>
+        <v>151689.7715686877</v>
       </c>
       <c r="S8">
-        <v>0.000421907455863502</v>
+        <v>0.1376278647084453</v>
       </c>
       <c r="T8">
-        <v>0.0004229628033165029</v>
+        <v>0.1381724851205924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J9">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N9">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O9">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P9">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q9">
-        <v>9544.233422741849</v>
+        <v>13363.42247386773</v>
       </c>
       <c r="R9">
-        <v>85898.10080467665</v>
+        <v>120270.8022648096</v>
       </c>
       <c r="S9">
-        <v>0.289426763284704</v>
+        <v>0.1091214887549758</v>
       </c>
       <c r="T9">
-        <v>0.2901507272564658</v>
+        <v>0.1095533038551064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H10">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I10">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J10">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N10">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O10">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P10">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q10">
-        <v>2210.208152695815</v>
+        <v>9003.85163288172</v>
       </c>
       <c r="R10">
-        <v>19891.87337426233</v>
+        <v>81034.66469593548</v>
       </c>
       <c r="S10">
-        <v>0.06702407238867011</v>
+        <v>0.07352260969300979</v>
       </c>
       <c r="T10">
-        <v>0.06719172451972899</v>
+        <v>0.07381355305740742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H11">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I11">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J11">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N11">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O11">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P11">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q11">
-        <v>0.7188063532533333</v>
+        <v>16.08591505943</v>
       </c>
       <c r="R11">
-        <v>4.31283811952</v>
+        <v>96.51549035658002</v>
       </c>
       <c r="S11">
-        <v>2.179764335550251E-05</v>
+        <v>0.0001313525036496919</v>
       </c>
       <c r="T11">
-        <v>1.456811157866725E-05</v>
+        <v>8.791486081948882E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H12">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I12">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J12">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N12">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O12">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P12">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q12">
-        <v>2.263267068727778</v>
+        <v>7732.966844076172</v>
       </c>
       <c r="R12">
-        <v>20.36940361855</v>
+        <v>69596.70159668554</v>
       </c>
       <c r="S12">
-        <v>6.863307225805034E-05</v>
+        <v>0.06314496575773006</v>
       </c>
       <c r="T12">
-        <v>6.880474909616386E-05</v>
+        <v>0.06339484275283451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H13">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I13">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J13">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N13">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O13">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P13">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q13">
-        <v>1552.591813790241</v>
+        <v>6131.264597514882</v>
       </c>
       <c r="R13">
-        <v>13973.32632411217</v>
+        <v>55181.38137763393</v>
       </c>
       <c r="S13">
-        <v>0.04708200265690334</v>
+        <v>0.05006597090976046</v>
       </c>
       <c r="T13">
-        <v>0.04719977225517804</v>
+        <v>0.05026409176100799</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H14">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I14">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J14">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N14">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O14">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P14">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q14">
-        <v>55.92717338080334</v>
+        <v>165.508396814718</v>
       </c>
       <c r="R14">
-        <v>335.56304028482</v>
+        <v>993.0503808883079</v>
       </c>
       <c r="S14">
-        <v>0.001695979137800493</v>
+        <v>0.001351489313249566</v>
       </c>
       <c r="T14">
-        <v>0.001133480941568505</v>
+        <v>0.0009045582807483912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H15">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I15">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J15">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N15">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O15">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P15">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q15">
-        <v>0.01818869752</v>
+        <v>0.2956905690295</v>
       </c>
       <c r="R15">
-        <v>0.07275479008000001</v>
+        <v>1.182762276118</v>
       </c>
       <c r="S15">
-        <v>5.515682211873027E-07</v>
+        <v>2.414515829788495E-06</v>
       </c>
       <c r="T15">
-        <v>2.457546215265588E-07</v>
+        <v>1.077364685226061E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H16">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I16">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J16">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N16">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O16">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P16">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q16">
-        <v>0.05726977778333334</v>
+        <v>142.1470496371105</v>
       </c>
       <c r="R16">
-        <v>0.3436186667</v>
+        <v>852.882297822663</v>
       </c>
       <c r="S16">
-        <v>1.736693318749812E-06</v>
+        <v>0.001160727927958679</v>
       </c>
       <c r="T16">
-        <v>1.160691623073394E-06</v>
+        <v>0.0007768807704490241</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H17">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I17">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J17">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N17">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O17">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P17">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q17">
-        <v>39.286829818971</v>
+        <v>112.704630791072</v>
       </c>
       <c r="R17">
-        <v>235.720978913826</v>
+        <v>676.227784746432</v>
       </c>
       <c r="S17">
-        <v>0.001191364407237562</v>
+        <v>0.0009203104313697674</v>
       </c>
       <c r="T17">
-        <v>0.0007962296351228405</v>
+        <v>0.0006159681866466395</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H18">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I18">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J18">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N18">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O18">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P18">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q18">
-        <v>148.5501868478933</v>
+        <v>17723.98435496467</v>
       </c>
       <c r="R18">
-        <v>1336.95168163104</v>
+        <v>159515.859194682</v>
       </c>
       <c r="S18">
-        <v>0.004504751493428209</v>
+        <v>0.1447284603375914</v>
       </c>
       <c r="T18">
-        <v>0.004516019552214377</v>
+        <v>0.1453011791971439</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H19">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I19">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J19">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N19">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O19">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P19">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q19">
-        <v>0.04831165696</v>
+        <v>31.66494945423467</v>
       </c>
       <c r="R19">
-        <v>0.28986994176</v>
+        <v>189.989696725408</v>
       </c>
       <c r="S19">
-        <v>1.465040290143786E-06</v>
+        <v>0.0002585659798269537</v>
       </c>
       <c r="T19">
-        <v>9.791366005018158E-07</v>
+        <v>0.0001730594506958582</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H20">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I20">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J20">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N20">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O20">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P20">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q20">
-        <v>0.1521163269333333</v>
+        <v>15222.26142213766</v>
       </c>
       <c r="R20">
-        <v>1.3690469424</v>
+        <v>137000.3527992389</v>
       </c>
       <c r="S20">
-        <v>4.612893901166203E-06</v>
+        <v>0.1243001807246116</v>
       </c>
       <c r="T20">
-        <v>4.6244324643319E-06</v>
+        <v>0.1247920608812907</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H21">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I21">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J21">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N21">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O21">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P21">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q21">
-        <v>104.351168805408</v>
+        <v>12069.32790914082</v>
       </c>
       <c r="R21">
-        <v>939.1605192486719</v>
+        <v>108623.9511822674</v>
       </c>
       <c r="S21">
-        <v>0.003164426066986177</v>
+        <v>0.09855432111742879</v>
       </c>
       <c r="T21">
-        <v>0.00317234147341854</v>
+        <v>0.09894431986586213</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H22">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I22">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J22">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N22">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O22">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P22">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q22">
-        <v>3267.688130443085</v>
+        <v>1295.514368692596</v>
       </c>
       <c r="R22">
-        <v>29409.19317398776</v>
+        <v>11659.62931823336</v>
       </c>
       <c r="S22">
-        <v>0.09909191834772756</v>
+        <v>0.01057876130846313</v>
       </c>
       <c r="T22">
-        <v>0.0993397840874482</v>
+        <v>0.01062062353858656</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H23">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I23">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J23">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N23">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O23">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P23">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q23">
-        <v>1.062721167573333</v>
+        <v>2.314513270849</v>
       </c>
       <c r="R23">
-        <v>6.376327005439999</v>
+        <v>13.887079625094</v>
       </c>
       <c r="S23">
-        <v>3.222678387894357E-05</v>
+        <v>1.889958462003879E-05</v>
       </c>
       <c r="T23">
-        <v>2.153826336696762E-05</v>
+        <v>1.264958265164182E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H24">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I24">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J24">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N24">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O24">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P24">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q24">
-        <v>3.346133226177778</v>
+        <v>1112.653791688231</v>
       </c>
       <c r="R24">
-        <v>30.1151990356</v>
+        <v>10013.88412519408</v>
       </c>
       <c r="S24">
-        <v>0.0001014707484903299</v>
+        <v>0.009085579570302088</v>
       </c>
       <c r="T24">
-        <v>0.0001017245645689157</v>
+        <v>0.009121532987879665</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H25">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I25">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J25">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N25">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O25">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P25">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q25">
-        <v>2295.433502567352</v>
+        <v>882.1937219987843</v>
       </c>
       <c r="R25">
-        <v>20658.90152310617</v>
+        <v>7939.743497989058</v>
       </c>
       <c r="S25">
-        <v>0.06960851223528479</v>
+        <v>0.007203715403224732</v>
       </c>
       <c r="T25">
-        <v>0.06978262901154404</v>
+        <v>0.007232221915770033</v>
       </c>
     </row>
   </sheetData>
